--- a/class diag.xlsx
+++ b/class diag.xlsx
@@ -16,16 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Store</t>
-  </si>
-  <si>
-    <t>Store(pids[]);
-Store(art[], mid);
-Store(art[], desc[]);
-enum Location {VITEBSK, MINSK, OTHER}
-Product[] products;</t>
   </si>
   <si>
     <t>Product();
@@ -43,82 +36,112 @@
 bool isValid();</t>
   </si>
   <si>
-    <t>StoreItem(Product const &amp;p);
-int[] availability;</t>
-  </si>
-  <si>
     <t>setAvailability(Location);
 getAvailability(Location);</t>
   </si>
   <si>
+    <t>NewProduct</t>
+  </si>
+  <si>
+    <t>StoreItem extends NewProduct</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>main_unit</t>
+  </si>
+  <si>
+    <t>main_mult</t>
+  </si>
+  <si>
+    <t>sec_unit</t>
+  </si>
+  <si>
+    <t>sec_mult</t>
+  </si>
+  <si>
+    <t>smid</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>store_manufacturer</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>storePlace</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>regexpr</t>
+  </si>
+  <si>
+    <t>lastPath</t>
+  </si>
+  <si>
+    <t>startRow</t>
+  </si>
+  <si>
+    <t>articleCol</t>
+  </si>
+  <si>
+    <t>itemCountCol</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Store(pids[]);
+Store(art[], mid);
+Store(art[], desc[]);
+Product[] products;
+StoreItem[] storeItems;</t>
+  </si>
+  <si>
+    <t>int smid, string storePlece, int mid, string path, string regExp, string lastPath, int startRow, int articleCol, int itemCountCol;
+enum Location {VITEBSK, MINSK, OTHER}
+Warehouse[] whauses;</t>
+  </si>
+  <si>
+    <t>Warehouse();
+Warehouse find(int mid, string storePlace);
+int getSmid();
+string getStorePlace();
+int getMid();
+string getDirPath();
+string getRegExp();
+string getLastPath();
+int get startRow();
+int getArticleColumn();
+int getItemCountColumn();
+bool isValid();</t>
+  </si>
+  <si>
     <t>StoreItem[] getStoreItems();
-Product[] getProducts();</t>
-  </si>
-  <si>
-    <t>NewProduct</t>
-  </si>
-  <si>
-    <t>StoreItem extends NewProduct</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>main_unit</t>
-  </si>
-  <si>
-    <t>main_mult</t>
-  </si>
-  <si>
-    <t>sec_unit</t>
-  </si>
-  <si>
-    <t>sec_mult</t>
-  </si>
-  <si>
-    <t>smid</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>store_manufacturer</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>storePlace</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>regexpr</t>
-  </si>
-  <si>
-    <t>lastPath</t>
-  </si>
-  <si>
-    <t>startRow</t>
-  </si>
-  <si>
-    <t>articleCol</t>
-  </si>
-  <si>
-    <t>itemCountCol</t>
+Product[] getProducts();
+Qstring getStoreBalance(int pid, int smid);</t>
+  </si>
+  <si>
+    <t>StoreItem(Product const &amp;p);
+QString[] availability;</t>
   </si>
 </sst>
 </file>
@@ -487,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F6"/>
+  <dimension ref="B4:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,39 +521,49 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +577,7 @@
   <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,83 +595,83 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
